--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/75_Tunceli_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/75_Tunceli_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D032219-1BEE-4548-956E-C9A779924BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEBECEE-7F98-442F-B100-99CCF9B1EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="701" xr2:uid="{499C059D-32F9-4592-905A-0C87F8C81523}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="701" xr2:uid="{622E8BBD-286A-4CDA-BBD2-553F4A9FB11B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -981,14 +981,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1C77F91E-0C36-4465-A14E-95303DD9F626}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B47863A0-16C4-458F-853B-BEE5A54681C0}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{947D52E4-51A9-4EAC-9F69-89D0CE26CE75}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{29D06EA5-FF41-4189-9DA9-9D1DEEFA9FCC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{8E5916B8-6807-4B6C-A3CE-94AFD67FC07C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F66869A7-BE55-49EC-B8E1-978C032C9AC2}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6DBD77E2-F15D-49CC-AF44-3F2337EDBC7C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B9D39588-9C56-42BA-AFBE-DD167F946CD6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{49B9458A-C4BC-486A-9417-7153586CD2F7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F0784766-4C6E-447E-A72A-A45C0412EE81}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{6B3C6725-6538-4304-A676-13ACF675BCEF}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{501A4364-46C7-4E9D-9D90-57C1E74B1E8E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{973B546B-8DAA-4F0A-8CBB-05D890053F0C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C32796C9-D14A-4995-852E-B9383DE3CF32}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{7B587C93-5BBA-4CC8-9EC8-D1D30FF44DA9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A141296B-E887-4BA1-A437-FDA95B4C9514}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1358,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FCDAEB-425B-4B59-82B0-405F4F8C5DF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD512FA-ACF6-442D-98D5-AB36C83ADE3D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2537,18 +2537,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D42ECDDF-526E-4723-85CC-09922744CDE9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA9099E3-FE9F-406E-B177-75063906FE68}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D5582C9-C435-4A60-9C8F-4F2E378BBD9E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD6270A1-F66E-4446-A5EF-2E32B9066A1F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EDDAE92-D024-46CE-995F-3158C5B48AC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66B0167C-29D2-4CBF-A4D0-793557EF5F63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CDFB6C1-F87D-4FAE-A350-3A9C76B3248A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39DA1532-EF02-489A-85BB-948FB90810D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1A99DB6-CEF5-4800-9B88-B9EB5107754B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78240250-3D58-4ED6-9915-FFC5F0C828B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E068278C-0963-4014-A41B-9617E060086A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F08FE6B-818A-40F0-B0C8-266DC7383183}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A05F58E6-C3DB-4A70-A870-DE0EADCE667D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C0F26FAC-9392-439F-BE6E-F5095576C2BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0244E80-DE76-4499-8AA0-6D6A2A242B2E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{103BCAF7-9786-419B-9825-6EC3D2B53017}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD5C9FA6-BC7B-4757-A0A5-D20D2152CF00}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09F5BDF4-8403-4572-AF69-761726AD7194}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AECDAFC1-C33D-4BAD-9E17-F45DB65944B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45C32A0C-A80E-4229-B69C-09560D91E8F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E41FC6D-6921-4FD4-94D0-45B6497E6F64}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{206E974D-3BEC-45B6-8C59-41FBE1A06B0D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E012FBD1-4137-4B21-AF3B-A63089CD68D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCEC0C75-547F-4154-8E61-0848AEF5382E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2561,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3761519-C443-45F2-A141-73C9F6E9B076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7E31A2-863F-485D-AF41-69391453E1D1}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3717,18 +3717,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F225D305-9819-4C5F-8833-19937F970F47}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F371D2A-E4A1-4C13-9C3E-3874FE71F34A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD70BC32-09E3-4C22-9ACD-B3D48C409517}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0209C669-8C78-47FC-9FD8-DC46200F80FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83BECC7C-8877-4FA7-B2A4-BA21F34835FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2257E474-36C1-44D1-AF0D-C4712AFD4035}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC5C3F76-8B58-489E-ABCB-544175CC2F7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACE6EDF6-213C-4477-8E1C-CE8BC89C9CF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3584C6C-2DA3-41A2-A54A-461FD61849AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1EE2335-CE25-4E28-A5E8-7AD5CF0EB764}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD331071-FE1F-4285-BCD9-423191939176}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F3586CC-2DCA-40F1-BA7A-05E167CE2C95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4A446EA-54D2-46AA-BBF2-30DF7B6DD318}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{911316C0-B8BE-4DEA-839A-50D8ED174D97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FB4575E-BEDA-4E09-BAA7-B4C1C678A38F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3371B776-92D0-41C0-B835-F040B268A6CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16A8DEFC-9C68-469F-B516-FE72193CB326}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95D78489-5488-4409-B260-BB85215CBEDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5704D3A-D64B-4201-A70A-5BB40A8F03ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4BFE044-220C-4B21-A167-C0F67E27F2C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F6ED350-79D6-4D09-B45D-393AE0E34C94}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71567ADF-0BD1-46C9-97A9-520AB1929FE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CF9F9A1-DB71-43A8-A7F4-3E5E58F7DD07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85126099-8CF3-41F1-9523-DD97B59C6F62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3741,7 +3741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966954C6-6CA2-4BC7-9E6B-6EAE9FA5FE75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E5F9-B1CC-4CDE-843D-CAE39CF637F9}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4897,17 +4897,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{618AA11B-F3CE-4039-99C3-FC36BFDED1E9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F941789E-33DC-46BB-ACE5-1CB128653355}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B713741B-068B-4CB4-B4D8-37AE77AC30AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92C08103-7E7C-4EE7-9E06-A9EE229DE2E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B853BB2-FE53-420C-B9FC-53D18B5AA0C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FABC404-8DBB-451D-870C-96215B79E3F1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95B29D1D-B3C5-4FF4-AB92-C6DC0A03F659}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3789A56-66E8-4116-A48B-4988458FEFF4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F49A9620-C552-4AAD-B464-C7539ABE8A96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F6B7A95-2D83-423A-AF3A-659420928C12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21D843AD-9E4B-4754-B641-0BA98BE50FF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0FF4B29-4257-48CB-B698-355B33F94307}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4045E441-1BBA-4404-BA3D-8A9DCC29849B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{79451EDB-EFDF-48AB-A6BD-DF73E22062E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A52F48C1-EBAD-4687-914D-8A7D0BBEB072}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58997246-0F5B-45E1-AEA6-810A24EED7E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C146B979-D5F3-4C95-8327-F6A8A001C921}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67F94E64-E871-4D5B-8C0D-203A52EA867C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97799144-1F6C-481D-84CB-0CDFC8E9FCC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D295CE0C-1D5E-40AB-9E0F-6BCAA4EC34CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53E42399-2853-45BB-ABC8-60A243345D8F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C32A4404-99B7-41B9-BC97-083F54F6C0B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4920,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678AF3D8-FB4B-476A-AD47-99498F311E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66C9E47-EB9A-4D0C-A789-9DF166CBF39F}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6072,18 +6072,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37CF384E-5C32-46B0-9F5A-4AD67403766B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD288B65-27C4-4669-8523-D06C59AB6B87}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2401761-F09A-433D-B0D0-BC8688F2DB0F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB02C254-99D6-4197-95A8-AD42727A0104}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E969BBE2-31BD-456C-906C-90890DF6FDED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7991E13A-C0E0-413D-8F55-17FA640E063D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3A3D97B-1069-46DB-8162-636E3301DA19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AF71CA2-97DA-4753-A0E9-18FC7353F11F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B761298-6C7B-43D6-B394-5C57F8A2484E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D608EDF-AE1D-45A4-8810-B38FFE98802E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{995D423C-F3B3-41D4-9EAB-DE2CB25D0C5D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7A8B2A7-C8F6-48D9-B2FE-97691D96ACD6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0587782-0CC7-417F-83E4-9338508FC9B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22D350E8-D9BB-46C2-A26C-3B02EB088E85}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5FC84A5B-D616-4930-A7EB-E752B6970E7C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2EBDB831-3EBE-409C-ABF4-4513A63921C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D0F026D-B58F-416E-ADB2-1E338C21DDDE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF9A2217-AEBF-4A7C-8F70-927F2BFA6EC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C056DA91-6243-4623-BBAA-14D2422F6A76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{104DBB22-09B1-4E8E-9ABB-DB602B1B376A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FEAFA7AF-75E0-49EB-AC7C-B965947E18D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FEF984B-0AC0-4B7B-8F09-CC639BC01673}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6665A75-F610-4E55-A742-CF9F8018C08F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9ABCAE2C-0893-48D5-83EB-048308947C9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6096,7 +6096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6D01F8-885A-4A77-8799-A806ABCFE7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C048F5C-08FF-4F2F-A6E7-D56B3C65FFBF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7275,18 +7275,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E9AEABE-8BD1-47CF-AF28-BCB810B70BA9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{264AE8DE-8A06-4A0C-A3CE-A9295E136F4E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1C923CB-7BAA-4F13-A814-7A68DCA61054}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CEB6C68F-2CB1-45C4-81FE-8759FE240468}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C8CEFD3-6814-4DC9-9E0D-0AB950E1A3FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11E59B98-F9EB-4072-9B47-25276F29316F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{212128AB-0320-43A2-9B1C-FCE2EC5D4229}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60D50415-B62A-4B20-A0E4-8D2365EBD5D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B42C7597-A993-4EE7-9976-2EBE379679E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A92D43B1-ECF8-41EA-8FB0-DEB1E227383F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33537C13-BF72-40B5-963B-46EFC572E488}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AF733A6-2969-4B92-9ABF-092EF0A91022}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9754A71E-C665-496D-AD4B-716CA33B2836}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BD78F58A-1613-440B-9B3C-028283C64305}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A445947-B166-4C2E-BE4E-09D329A62BF1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B849A3A6-A28F-489B-B297-C8C5F9BF99A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D1AFC48-40C4-4D8A-8F1D-D095CB0074FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E57800AD-BDDE-426F-BFEE-FBE7832B380C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3A4E2BA-9B75-4D7D-AE48-9F3358C5C344}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80812B3A-034E-4B2C-A12B-99F52067335D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{364F8959-06FE-46D9-A3E1-C46309D081C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1C69265-3137-4FBD-B96C-615B53324BD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED2A5493-0488-4DBD-8E28-05E10FCF3203}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06E57CAE-7136-42DB-9E09-3A7EA426B532}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7299,7 +7299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05F433F-175F-4BFA-9A20-3ED65C722BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C0B9E-3CF2-4958-9F5A-59853184C27A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8478,18 +8478,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A0644B5-E16F-4D46-80BD-F244A169F984}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ECAC676-6EF6-4450-8E7A-6E0E42AABEC8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD9D942E-C185-4160-94DA-633F7EC86C8B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE0FFFEC-B06F-470A-BEFE-17468406DE93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB442289-DBAD-4569-B1B2-E0DB625E6F98}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4045253-7690-4197-9A4F-3EDBEF6E401B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75EB308B-921E-4895-A380-38F14147912F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E0B89D1-5811-4342-B116-5673C51F6C79}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FAD7B53B-1A1F-4E4E-98F7-14D66EAD8298}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E5B6A70-2B18-4B2E-8C60-AA9F80D39127}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE3F8376-25C4-4A21-A85A-E24D644F0AE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0F33EB4-3996-45DC-9229-0E26B94F729F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52638A1C-A80D-42C7-8C95-113890AB9DE1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3235D0F-E3EC-437B-AEEC-FCBF92C541B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5406D145-9031-4FBD-9029-49CC4D048E9C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6D599EB9-FA61-4C2A-B56B-EC7D598784F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{725E6B8E-A7C2-41C3-B603-06C2328803C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F90FF23-5B50-4238-AEA8-E6122DB6FD3F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5873BE2B-99C4-42C7-9329-A56AAB99DCB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E938BC99-DB84-4EF6-A044-C7D622CA20F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3B1495F-BEFC-4ABC-8AED-DF0A5E7700F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C169EA5F-98FC-42E2-9E01-F2FD5454117D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7C2A778-F200-4E60-B614-4C4F7B87D101}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD8785BE-F399-4C69-A74D-236A087F1874}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8502,7 +8502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61F4DF5-2396-4C16-94C9-EB0055371973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D332C616-F58F-47A1-B024-324225C7E156}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9681,18 +9681,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41F28FA3-A309-44B9-8E77-E5706CA81BCA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4544D595-0CEB-43D8-B3BF-F0FD586C1A7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F0ED1B8-CFC0-4AE4-AC4C-3E8E8790D4B0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3E2AE4F8-D69A-401A-9A32-0061930C42D5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{389B43B1-D61D-411B-A911-E0790F0282CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8AB72B9-AD9D-4266-9E8E-BD1BEB20C98B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{543F3B52-EB9F-4483-BDAC-79323A416304}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89AC1A1F-464A-4E89-8A70-3665076FDF48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBABE231-15DE-4E35-B4A1-F5383CA00149}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F04F563-1977-482F-9291-6868DAC93A13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{115E0EFE-96B2-4295-9AC8-A6A417EE24A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A72B9B8-6714-4388-9BA8-81C27B69553A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55153359-F0B2-4A4C-9250-CCA18B5ED126}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{356D8DC6-4BD7-43D8-8654-B7AD71CE1240}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E499D189-FA49-4681-997D-997FBAD4FB7D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{584A3FC0-A135-473E-977A-7533D86DD5D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{582A148B-2B86-4299-8F03-425A90B2A1C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A68F9D2-5ECF-4B8D-A4EC-E960F6EDED6E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E00A53F6-5C5D-4B59-AB36-9689F59F7900}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CC40F07-78B8-45DB-A9C8-950DA0CB9942}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5972AAE6-B6E3-41AB-BDC5-FBD4EB0E6216}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{768AE6CA-8920-4979-8200-5A81EE7C5BA0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{966C136F-6215-4B54-AC7B-88CE328C82F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2DA1F3A-05A4-4A75-ACFA-219E3A653B08}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9705,7 +9705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32273DC-891E-45C5-92BB-1C6467351F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFEAB9E-04BB-4A7A-8A5C-D64B7F61F6CD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10884,18 +10884,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F576498-D663-4C96-9730-6B7418467D73}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92876BC6-62FC-4B2B-A882-DABC904D712D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED8E1DE1-9781-462D-8C30-30E19894A148}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3A359596-E094-40EA-AB69-63BAE36F1B95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{184973B5-F46D-4A04-9AF1-F8C8957E8D1B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37EDE66B-D0B5-41A0-AEA3-E1EF813F97E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9272A194-BFD4-4043-B7CF-7C28291AD574}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{676E5FE5-BCE8-417A-8B01-2B4C4E57C290}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{493A8197-EB5A-41CD-8561-A29BF06250F2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDCD4A6B-55E4-4E6D-B2D9-93773602E177}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BE63BE6-44DF-4404-A8A2-AE2EBB6F8A4F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1CF9A9F5-DD5F-47AB-8968-031E4CFE0C12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9286B2EF-0C95-43A1-B44C-8CE8218EAEFC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F43D2687-1D7A-46EB-9F1A-FBFFA06CCB1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A56F1951-BC61-48A9-841A-EC735637A7C4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7E1E06F1-BD62-4DC0-88BA-11F8B56DED6F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE839DAA-4B82-457A-A630-61469452325B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE26B5B0-DE44-4102-B69E-B84FE5FB7881}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{080F5F40-1506-443F-B70E-061C0EDDBD7D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B378D820-DC37-4E6F-918A-8488666AF24B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F20E6FFE-9DDB-41AD-A3DE-23E3A57C888F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0BC13ADE-3A5C-404D-B560-2E6B1AEC8FF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48EBEC28-202F-4D88-A7A6-801DC1DE2D63}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D044C14-C146-4F36-A2E1-73B22E86FFE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10908,7 +10908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9616CE-951C-408C-8F5B-3AE87F5BBC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE965898-8F87-40A8-8BAF-966A15CA9622}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12071,18 +12071,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52EEC7DC-7F44-4326-A64B-0A9C50B6C636}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6CB1CD2A-C004-44F3-A62C-03C9109D3A9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7202C54E-71EC-4231-8519-BB1B7E84A1D1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE7A06D2-064C-48B6-A12B-0E7ED531F328}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05276017-915C-4B2A-B604-78363A3F75A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D83443F3-4E83-4A3A-A442-82C98E3DAB79}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{872F6EB1-A275-4D68-80B1-3C97B742A923}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C6A52F1-8EB7-4403-A52E-26A6D17ADF70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{079B7663-53FE-43C9-9079-E050AF0321E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0EB3550-AFEB-476E-84AB-DD30EB47EBD8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38D9FAB8-4034-4974-A1DD-058675584B87}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{414E6726-AF33-4B3A-97B8-DB8EA8511854}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57683D6A-FB95-452B-9B23-F412FBD24D4E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B099993-1209-41CC-80E1-F7D21E686DED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{202E4E5D-FA30-436B-A5ED-19CFC4E5567D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53228444-9642-4089-921A-619ECF7CEB7E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{278D2ABC-CA1F-4609-99BE-D87D3D93FCE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1919EE3B-B38E-40B5-A9AB-25DF07F8FF7B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3E9403D-71D4-4AF5-B34B-86E22737572F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C340AA7-35A4-42D2-95C5-C3D33C7F7D05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31AA4B8A-BBFE-466E-A7DE-5C44422571BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2EB0B47E-9D61-4D8F-B004-38A8B33AA529}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0837AA10-29C0-4850-A15E-9B3991948514}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2954A5CE-A435-4D67-B50E-9B9E6748AB0A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12095,7 +12095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D8DB1-9B1F-4A6F-B227-8EF4984BB448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4101E4D1-0845-48B6-B26F-AD86F11AA0C8}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13259,18 +13259,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEBFC6D9-1768-4369-9B88-BD039F660FF1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C16AE33-1638-45C5-8BAF-3CA476647869}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77D69BB7-2C6F-4DB9-8E4D-D5AE1A904B98}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AB188D9-4543-492A-9E16-D6172DC49C43}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6065DBFB-9377-4AED-85BB-EBB5B1A51DFB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48217C12-D7FA-4992-9138-EEAFBD4C4603}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{175CAC9B-F0F2-49E9-A211-09A4D3A79208}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABF5FAAF-A782-49E5-9025-B48064C4969C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DA90717-5798-4FDE-B1E2-776A086D8EE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A2E77A3-94E5-49AE-84E9-861FF9909BC6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A9C786C-4CEC-4AB1-A640-61247EBFAA6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{635E8DFE-7C6F-45B3-B44C-39FA5454F0E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74C85E04-D78F-42B8-8617-FE9F92A6507C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2B4FA69-D7BE-4A7B-9211-AA225384DB91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC0477CC-BCFF-46DD-A446-916C5793B778}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84F95691-C736-4176-AEEF-7DB07FE6E48E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{820F6118-F000-46F7-BC28-9360F65DC8F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66B1546F-CAD4-4F49-9634-E924DA29489E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10C181C8-B273-49DA-AC75-6C2056FC0BD6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EDF2843-8E9B-4D3B-946A-8B2D1ED76656}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AFD14C2-005A-46E4-8155-52A27C9DC4FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25660078-A424-4F0D-B353-FCC00B6E39A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4ED61ED-7404-4C59-8453-C4E759072FF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59F5453C-3543-4DA3-B80B-B4B7A9450438}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13283,7 +13283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D742503F-A9C7-411A-8C1B-1C77B1979654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929BED0-F879-48E9-A3A0-5B731DCD7D1F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14443,18 +14443,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB6869D9-32FA-47A0-8685-019E6FF2E7C2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9690AFED-0C2D-4B2D-9447-45898C5A6910}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4AA73057-D3EF-4346-8B4C-A42253DACECE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54DAC9A9-7215-4A19-AD48-1891E39C52A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F835082D-CB64-4E97-B584-F8DBF1E86FCD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4ECEBE0D-37DE-4EBB-9A53-0CC11A7E7CDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28254D4C-76F6-4359-9C55-2144A5B77101}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A2BDF76-A023-482D-95E3-A892761E401B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77096A55-9C15-4C77-B233-DFE0D7BC995A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5AF8BE28-46CA-4273-8121-C3A6A1C03429}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{912A2A8E-894E-4498-AB8F-E3E193B27DBB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA35C010-C6EC-4DB7-8B44-44F5A8A80AF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC345221-60F7-4A75-B56A-AEF7E5EB6643}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4272634D-F7A5-41FD-8AFB-7C3EC251F51E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4355267-57A1-4EC6-BCDF-F43E6CE4CD54}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A3928E5-1890-498F-9792-38D0BBBD19A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E46D434-8234-4B8C-B53D-8CC2151FFF37}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3B248D3-10CE-49CF-BF62-B371C1325EC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70777576-ECC5-4810-AA10-F58C57997F2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0289177A-6321-4402-9383-75DD6B5812F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D15ECEF-AD74-4F99-A4E6-3BB520F8C3F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B185AA9E-A16D-4A31-B934-2488A2BA9E79}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34417BBB-B1CF-49FF-BCD6-554EF026E6C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E032633-671A-4D9F-859D-C612A5C90ED3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14467,7 +14467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D498FC6-0503-400C-842D-052E81226440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6088081F-A404-420E-8094-BE8C253A1DAF}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15627,18 +15627,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED58238C-4986-40AE-9D77-1ABB346AE710}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05E35B8C-8AAC-4713-B5D7-902545B2F271}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFC28205-F99A-4801-8424-106DC3302F4F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63FA51F2-435B-4EA4-A65E-DC0D14141933}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9ECD810B-2919-473A-AA0F-F579D7362692}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9996A980-D3B3-41CE-9BFB-4067DB6A9577}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{112E5F20-5AE7-468F-9335-736E3324F362}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E619A9A2-6A8E-4146-BD33-54A785AC6028}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B279D45-A1F7-4ACD-ABE3-C2C404AD42C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98807881-3812-4E27-ADC9-4D2164E735F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22FA8389-94AF-428D-BB8A-3E48188BC741}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06939412-35F3-46BC-B477-FBA9AF0B0180}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7ABC7592-BADD-4B25-BD58-E963A5E1FB5D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C538902B-C5C0-496F-89C2-E2C4F64D3BD3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61D5B3B3-45FA-453C-9735-15B0E3782BDB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C4ACD5F5-A56B-4BC0-AC52-639A08DF03BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{039FBA9A-EF6D-494D-AAB8-B7816E2A29FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A84FEE5F-3B78-4A0F-BC9A-ED8BCAACAF13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{677B65BE-4D18-46CB-A7EC-25342192E312}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5582AC41-3DC7-478C-A48C-993446EE207C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87861134-3572-4E7E-9317-17E45ED09DE0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06DA47D5-CC67-494B-9E79-62E4E0936F6D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{837DF679-C859-4734-978E-89F4A0DB0ECC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C1A21F7-4C18-4636-8D4C-6F70819DB381}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
